--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>0.0947737155118572</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627338904894588</v>
+        <v>-1.627430198003624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0208786907746532</v>
+        <v>0.0201908444186448</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.228452234115861</v>
+        <v>-0.2281720587122694</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1067229981047353</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.652135215121999</v>
+        <v>-1.652213916078064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02242909960913438</v>
+        <v>0.02152089057614388</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2036551368788899</v>
+        <v>-0.2034473663548782</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.122107166030331</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705272526637989</v>
+        <v>-1.705339422450644</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0173416415287701</v>
+        <v>-0.0182529986000032</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2135683093048416</v>
+        <v>-0.2133747049529217</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1336086839414134</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817614206373022</v>
+        <v>-1.817475692690347</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02267914036910073</v>
+        <v>-0.02367864251112667</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2327430102405266</v>
+        <v>-0.2324817230663907</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1376710864697421</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782303448415323</v>
+        <v>-1.782188545019468</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0005012109499740434</v>
+        <v>-0.001595154239278022</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2276321701536633</v>
+        <v>-0.227342550635344</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1333131326203613</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601739844915315</v>
+        <v>-1.602226216823797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06301675667099391</v>
+        <v>0.06212743586745902</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2111285796668256</v>
+        <v>-0.2109334012957843</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1234418151485868</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.341463191055275</v>
+        <v>-1.341941692868151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09991019085516073</v>
+        <v>0.09877689708782424</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2006739446631464</v>
+        <v>-0.2003134942843686</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1128677287074441</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9352867697940723</v>
+        <v>-0.9357880948842067</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1957081426157632</v>
+        <v>0.194607903249974</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1763884036405981</v>
+        <v>-0.1758453670437494</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1054368378200523</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4958466024424218</v>
+        <v>-0.495596333402135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2080264162590624</v>
+        <v>0.2074031046870273</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1297533651147013</v>
+        <v>-0.1293000476077667</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1045429149611654</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02247136984508905</v>
+        <v>-0.02173472889632032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1825823971632368</v>
+        <v>0.1817292787994918</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06475267148146811</v>
+        <v>-0.0644866622499683</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1136653001915958</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5276372949156523</v>
+        <v>0.5293403836048995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1444439138541211</v>
+        <v>0.1438300463968138</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02829074681685814</v>
+        <v>0.02863230896618039</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1340716492450024</v>
       </c>
       <c r="E13" t="n">
-        <v>1.094295196717749</v>
+        <v>1.096457898990416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02552047316336893</v>
+        <v>0.0249947507768545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.131414183567994</v>
+        <v>0.1316030658625501</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1645362491515338</v>
       </c>
       <c r="E14" t="n">
-        <v>1.697445157828081</v>
+        <v>1.700357093202487</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1782394501272477</v>
+        <v>-0.1789194263876496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2507311290390714</v>
+        <v>0.2510270446338759</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.203946389959502</v>
       </c>
       <c r="E15" t="n">
-        <v>2.337919834361816</v>
+        <v>2.34147082149947</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.452106185080597</v>
+        <v>-0.4525516324919251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3741720046079565</v>
+        <v>0.3744269957056072</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2531490420623861</v>
       </c>
       <c r="E16" t="n">
-        <v>2.958415486188881</v>
+        <v>2.962791259346097</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6882279415051558</v>
+        <v>-0.6887977364270667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5222147990427713</v>
+        <v>0.52244303181536</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3146782047027286</v>
       </c>
       <c r="E17" t="n">
-        <v>3.555883238271317</v>
+        <v>3.560792603910655</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9319183688744889</v>
+        <v>-0.9322402557847949</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6838807289724437</v>
+        <v>0.6840538710757867</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3898117582430838</v>
       </c>
       <c r="E18" t="n">
-        <v>4.122589934666174</v>
+        <v>4.12793372958299</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.154882112454535</v>
+        <v>-1.155388159602033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8182720555682177</v>
+        <v>0.8186151917366613</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.474609191835239</v>
       </c>
       <c r="E19" t="n">
-        <v>4.595692861955523</v>
+        <v>4.601362478830447</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.369453186079805</v>
+        <v>-1.369850625907933</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9935249185529577</v>
+        <v>0.9939672179260431</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5600531495786126</v>
       </c>
       <c r="E20" t="n">
-        <v>4.96059614082754</v>
+        <v>4.966294090046648</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.543421649461564</v>
+        <v>-1.544160651439014</v>
       </c>
       <c r="G20" t="n">
-        <v>1.12914870212071</v>
+        <v>1.129328140300538</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6373509045345679</v>
       </c>
       <c r="E21" t="n">
-        <v>5.298555360381132</v>
+        <v>5.303977856254012</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.757381216658209</v>
+        <v>-1.758557795951381</v>
       </c>
       <c r="G21" t="n">
-        <v>1.261764535147657</v>
+        <v>1.262021100264429</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6996925426374534</v>
       </c>
       <c r="E22" t="n">
-        <v>5.59271434984629</v>
+        <v>5.598210824617872</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.909765942839131</v>
+        <v>-1.911527270235867</v>
       </c>
       <c r="G22" t="n">
-        <v>1.36935031610768</v>
+        <v>1.369635213568636</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.744871113864167</v>
       </c>
       <c r="E23" t="n">
-        <v>5.755245990292677</v>
+        <v>5.760799129752626</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.038492374617344</v>
+        <v>-2.040658224928254</v>
       </c>
       <c r="G23" t="n">
-        <v>1.477740420838688</v>
+        <v>1.478088279064496</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7739150090568493</v>
       </c>
       <c r="E24" t="n">
-        <v>5.91291863371161</v>
+        <v>5.918712598097117</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.131304412104839</v>
+        <v>-2.133739419685492</v>
       </c>
       <c r="G24" t="n">
-        <v>1.51910564334647</v>
+        <v>1.519329154061695</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7901765197747853</v>
       </c>
       <c r="E25" t="n">
-        <v>6.007745415674369</v>
+        <v>6.013073470399973</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.164816853216452</v>
+        <v>-2.167406114670992</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591549873404335</v>
+        <v>1.591655332685462</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7976100550682316</v>
       </c>
       <c r="E26" t="n">
-        <v>6.065459974795102</v>
+        <v>6.070378784549167</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.188286265324606</v>
+        <v>-2.190629979796223</v>
       </c>
       <c r="G26" t="n">
-        <v>1.659867025326148</v>
+        <v>1.659929986091</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8010649316813794</v>
       </c>
       <c r="E27" t="n">
-        <v>6.054322215492778</v>
+        <v>6.059085197353834</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.185808759227679</v>
+        <v>-2.187451248180756</v>
       </c>
       <c r="G27" t="n">
-        <v>1.633436096241267</v>
+        <v>1.633283416386501</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8057649419849237</v>
       </c>
       <c r="E28" t="n">
-        <v>5.994186814963485</v>
+        <v>5.998649159172373</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.201319143648976</v>
+        <v>-2.202454011435434</v>
       </c>
       <c r="G28" t="n">
-        <v>1.627728702907431</v>
+        <v>1.627407603006685</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.814124832563644</v>
       </c>
       <c r="E29" t="n">
-        <v>5.89415002970922</v>
+        <v>5.898467564158948</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.154505453952812</v>
+        <v>-2.155075248874722</v>
       </c>
       <c r="G29" t="n">
-        <v>1.601645632048357</v>
+        <v>1.601204906694393</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8254512887351795</v>
       </c>
       <c r="E30" t="n">
-        <v>5.764339098756431</v>
+        <v>5.768313497037715</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.154755722993098</v>
+        <v>-2.154708502419459</v>
       </c>
       <c r="G30" t="n">
-        <v>1.536284488036346</v>
+        <v>1.535752469573346</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8376751143613358</v>
       </c>
       <c r="E31" t="n">
-        <v>5.568041600119901</v>
+        <v>5.571942019502484</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.101789192551769</v>
+        <v>-2.101103707224443</v>
       </c>
       <c r="G31" t="n">
-        <v>1.473666859352762</v>
+        <v>1.4729380884996</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8471028226044129</v>
       </c>
       <c r="E32" t="n">
-        <v>5.389573016070344</v>
+        <v>5.392647075414244</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.026480247693138</v>
+        <v>-2.025520096029145</v>
       </c>
       <c r="G32" t="n">
-        <v>1.431051865662667</v>
+        <v>1.430264856102017</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8500927138936266</v>
       </c>
       <c r="E33" t="n">
-        <v>5.127305228021859</v>
+        <v>5.130042447273802</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.991510264875201</v>
+        <v>-1.990062167283604</v>
       </c>
       <c r="G33" t="n">
-        <v>1.371958465791675</v>
+        <v>1.371138401829478</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8439144316017437</v>
       </c>
       <c r="E34" t="n">
-        <v>4.906322387505971</v>
+        <v>4.908385926573996</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.923976974475795</v>
+        <v>-1.922092873587598</v>
       </c>
       <c r="G34" t="n">
-        <v>1.276473743836212</v>
+        <v>1.275593867147405</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8273443573884056</v>
       </c>
       <c r="E35" t="n">
-        <v>4.619309444851518</v>
+        <v>4.620738654213659</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.887019005507655</v>
+        <v>-1.885171107059248</v>
       </c>
       <c r="G35" t="n">
-        <v>1.191900122429605</v>
+        <v>1.19078099483436</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8002325055515633</v>
       </c>
       <c r="E36" t="n">
-        <v>4.250436489755581</v>
+        <v>4.25121090716326</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.849495176665407</v>
+        <v>-1.847301781019874</v>
       </c>
       <c r="G36" t="n">
-        <v>1.142745079290505</v>
+        <v>1.141594471312835</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7645220355286655</v>
       </c>
       <c r="E37" t="n">
-        <v>3.940532587020052</v>
+        <v>3.941163768687693</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.808985433550052</v>
+        <v>-1.806862081755417</v>
       </c>
       <c r="G37" t="n">
-        <v>1.060184628340042</v>
+        <v>1.058997817922581</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7238876660767126</v>
       </c>
       <c r="E38" t="n">
-        <v>3.658386511488661</v>
+        <v>3.658525025171336</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.732015898518448</v>
+        <v>-1.729798892586096</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9840194170794228</v>
+        <v>0.9827570537441396</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6817650557586856</v>
       </c>
       <c r="E39" t="n">
-        <v>3.317538966847482</v>
+        <v>3.317364250725018</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.693203735025416</v>
+        <v>-1.691473888011106</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9007081590080986</v>
+        <v>0.8994269074433598</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6407236089351951</v>
       </c>
       <c r="E40" t="n">
-        <v>2.990826113915584</v>
+        <v>2.990125675406605</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.653462113241255</v>
+        <v>-1.652128919045514</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8402028639853002</v>
+        <v>0.8388869839998928</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6019637952643718</v>
       </c>
       <c r="E41" t="n">
-        <v>2.670533684979471</v>
+        <v>2.669875744986767</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.632805473302866</v>
+        <v>-1.631384134036331</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7859527209505507</v>
+        <v>0.7848084090493651</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5653197920082196</v>
       </c>
       <c r="E42" t="n">
-        <v>2.33616952509893</v>
+        <v>2.335585564004927</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.580917145959628</v>
+        <v>-1.579609923079388</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7254395558321458</v>
+        <v>0.7241158057511319</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5300011792144828</v>
       </c>
       <c r="E43" t="n">
-        <v>2.080589744296852</v>
+        <v>2.07988615774963</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.528445644531948</v>
+        <v>-1.527273000286579</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6497040517916419</v>
+        <v>0.6484700208005422</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.496024646299463</v>
       </c>
       <c r="E44" t="n">
-        <v>1.827123871174681</v>
+        <v>1.826516299793858</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.508785358697342</v>
+        <v>-1.50789997294161</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5633675289691779</v>
+        <v>0.5623916371139714</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4636529859363976</v>
       </c>
       <c r="E45" t="n">
-        <v>1.601617299704174</v>
+        <v>1.601077411145567</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.428661489346652</v>
+        <v>-1.428385248990863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5083319503928992</v>
+        <v>0.5076016055206157</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4324839101819135</v>
       </c>
       <c r="E46" t="n">
-        <v>1.390343009128467</v>
+        <v>1.389642570619489</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.367649360166794</v>
+        <v>-1.367237754166574</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4458465393155046</v>
+        <v>0.4451319346344341</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4021000362727454</v>
       </c>
       <c r="E47" t="n">
-        <v>1.237944903785014</v>
+        <v>1.237519918622263</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.320513783560324</v>
+        <v>-1.320350872581269</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3822168163369243</v>
+        <v>0.3814786013690343</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3723986038019641</v>
       </c>
       <c r="E48" t="n">
-        <v>1.028759336583273</v>
+        <v>1.028386294051525</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.24180102235188</v>
+        <v>-1.24177741206506</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2967664662797526</v>
+        <v>0.2961557468606879</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3435846527092745</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8717005606216482</v>
+        <v>0.8713542764149621</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.170858406535737</v>
+        <v>-1.170897757013769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2516991507986713</v>
+        <v>0.2513213862095591</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3157470790260632</v>
       </c>
       <c r="E50" t="n">
-        <v>0.772165887467078</v>
+        <v>0.7721233889508029</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.098277236814319</v>
+        <v>-1.098359872818188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2141761089659842</v>
+        <v>0.2137070512678366</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.28956817167339</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6371732855669671</v>
+        <v>0.637162267433118</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.065702124089441</v>
+        <v>-1.065712355213729</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1725700615326431</v>
+        <v>0.1721387802934067</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.264117125385638</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4640185900709211</v>
+        <v>0.4641193272946843</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.029145529997232</v>
+        <v>-1.029298996861559</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1298999771733027</v>
+        <v>0.129503324354735</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2387454423742397</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4028679472083893</v>
+        <v>0.4032032132812264</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.026525575169827</v>
+        <v>-1.027059954661509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1026033375717062</v>
+        <v>0.1021830744663189</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.213379937669529</v>
       </c>
       <c r="E54" t="n">
-        <v>0.246389984302524</v>
+        <v>0.2464372048761631</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9659636154586622</v>
+        <v>-0.9665365584188156</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05565192120242799</v>
+        <v>0.05535128355025956</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1897544265923661</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1276979244226031</v>
+        <v>0.1277246827476652</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9403008077049757</v>
+        <v>-0.9412774865697427</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02854888595275145</v>
+        <v>0.02825926643443212</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1686912523596984</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03899092880346022</v>
+        <v>0.0391798110980163</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.924215906304404</v>
+        <v>-0.9252634160296296</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007522910250096411</v>
+        <v>-0.007659849913649572</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1504861345424965</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07386781621292041</v>
+        <v>-0.07362856530648269</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9247455637387216</v>
+        <v>-0.9258072396360389</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05043381953499576</v>
+        <v>-0.05040863522905495</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1348104835746054</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.128034536234241</v>
+        <v>-0.128003055851815</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9053190197436286</v>
+        <v>-0.9064759237977845</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08022370542473257</v>
+        <v>-0.0802630559027651</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1218816428545172</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2074642631524376</v>
+        <v>-0.2076326831984167</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9127594081300169</v>
+        <v>-0.9143428713660454</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1057810538972919</v>
+        <v>-0.1059054014078746</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1120528624743387</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2994200342379451</v>
+        <v>-0.2996907655268088</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9090384269272621</v>
+        <v>-0.9106179551154874</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1243686457007317</v>
+        <v>-0.1246771534485066</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1047700822586451</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3920195791440645</v>
+        <v>-0.392592522104218</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8907380936134597</v>
+        <v>-0.8922609571133181</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1454510578114331</v>
+        <v>-0.1459075233566103</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.09903914861571382</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4993975895800761</v>
+        <v>-0.4999894207696852</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8801677682043649</v>
+        <v>-0.8817575275168785</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1747325355249898</v>
+        <v>-0.1750473393492499</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09389748957477438</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5638961711136145</v>
+        <v>-0.5644722621120105</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8887674216735911</v>
+        <v>-0.8905240270129627</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1956197692646499</v>
+        <v>-0.1960919750010401</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.08926491432596236</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.68323515285239</v>
+        <v>-0.6837718933727535</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9101913959336149</v>
+        <v>-0.9121707249786505</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2322991368483198</v>
+        <v>-0.2327367141640414</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08526536050872761</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.804560546722247</v>
+        <v>-0.8052908915945305</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9453376688931379</v>
+        <v>-0.9473964859037992</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2776844041919039</v>
+        <v>-0.2780590207427734</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.08215330847056695</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9019073332982094</v>
+        <v>-0.9024668970958317</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9746750242855008</v>
+        <v>-0.976626020986353</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3035565564887233</v>
+        <v>-0.3041971822710927</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.07930248522961827</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9440052617069569</v>
+        <v>-0.9447977803345318</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.014171099086738</v>
+        <v>-1.016082745309558</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3425229738556431</v>
+        <v>-0.3431793398292255</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.07539865415143585</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9899713421063009</v>
+        <v>-0.9907229362367219</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.023416100395698</v>
+        <v>-1.025509545827028</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3653147707320771</v>
+        <v>-0.3660246533557837</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.06903198001505891</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.053991421826964</v>
+        <v>-1.054811485789161</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.070979810203162</v>
+        <v>-1.073218852403212</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.384793257358173</v>
+        <v>-0.3854936958671519</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06020713923819675</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.079650294532847</v>
+        <v>-1.080866224304052</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.113135977319398</v>
+        <v>-1.115589086119945</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3975601264510429</v>
+        <v>-0.3982763051512347</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.04965950417942729</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.097983682248197</v>
+        <v>-1.099220074267978</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.121868635404374</v>
+        <v>-1.12442877750517</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4273405682260519</v>
+        <v>-0.4280378586967882</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.03882945186337131</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.120732980608355</v>
+        <v>-1.122362877408462</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.163333808126359</v>
+        <v>-1.165837285538787</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.404517290967192</v>
+        <v>-0.40538614952215</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.0286649290354698</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.09461134628081</v>
+        <v>-1.096142079876275</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.1891595268591</v>
+        <v>-1.191537869751385</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4107818870699687</v>
+        <v>-0.4118569421298171</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.01963692194743561</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.097280882710536</v>
+        <v>-1.098887956233384</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.211638880939955</v>
+        <v>-1.213760658715469</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.415400059171865</v>
+        <v>-0.4161902167707579</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.01211310013811488</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.054070909792589</v>
+        <v>-1.055815709988551</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.22865953670814</v>
+        <v>-1.231023713428334</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.422064456131452</v>
+        <v>-0.4228561877494663</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.006740786382922567</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.965115219152281</v>
+        <v>-0.9670638548244513</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.242302347442014</v>
+        <v>-1.24488688683919</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3952384482471245</v>
+        <v>-0.3960711043622925</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.004282414049966838</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.903402651463445</v>
+        <v>-0.9055126240955486</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.252630273906429</v>
+        <v>-1.255231340504378</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3780721957102191</v>
+        <v>-0.3789410542651771</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.005358891704895328</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7561201082642183</v>
+        <v>-0.758097076280572</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.238612059612125</v>
+        <v>-1.24118400685633</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3336911525660249</v>
+        <v>-0.3345962135607728</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.009840345273322254</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6428930427734534</v>
+        <v>-0.6448794549045348</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.259703128827993</v>
+        <v>-1.262153089590298</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.319353412390097</v>
+        <v>-0.3201451440081112</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.01736387014694837</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4868432130685819</v>
+        <v>-0.4885888002741043</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.256449631304265</v>
+        <v>-1.258724875944105</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2969708604852012</v>
+        <v>-0.2979672145889845</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.02778205441943423</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3424710312246402</v>
+        <v>-0.3442008782389496</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.274564230361754</v>
+        <v>-1.276275976156168</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2734565888320902</v>
+        <v>-0.2743207253296843</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.04076036115656216</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1822469028100793</v>
+        <v>-0.1837343508797084</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.286393771067889</v>
+        <v>-1.288031537963602</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.248443850975501</v>
+        <v>-0.2492812291480329</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.05501070930770233</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01169428920186369</v>
+        <v>0.01039887146503322</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.267662943524411</v>
+        <v>-1.268915862744966</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1850549529224797</v>
+        <v>-0.1858923310950117</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06853243683103906</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1753293170522832</v>
+        <v>0.1741126002715178</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.266571361263789</v>
+        <v>-1.267888815268317</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1614509621794546</v>
+        <v>-0.1623292648491404</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07989545509866684</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3445127623052876</v>
+        <v>0.3437194566681521</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.188761300021411</v>
+        <v>-1.189438915253131</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.116800761765518</v>
+        <v>-0.1175200885039524</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08873391990669084</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5452064963476105</v>
+        <v>0.5447736410892529</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119041697062518</v>
+        <v>-1.119465895215708</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06495099789075201</v>
+        <v>-0.06547514625814513</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09653124067038198</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7331412313926701</v>
+        <v>0.7328169834536821</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038502286663804</v>
+        <v>-1.038397614392238</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01995451327012925</v>
+        <v>-0.0203212597253923</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1045719915619876</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8888227406231571</v>
+        <v>0.888978568516166</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.914350741461652</v>
+        <v>-0.9139918651019954</v>
       </c>
       <c r="G88" t="n">
-        <v>0.004194088088865908</v>
+        <v>0.003951689144185602</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1113843984639896</v>
       </c>
       <c r="E89" t="n">
-        <v>1.028110840705298</v>
+        <v>1.028457124911984</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8104206199108495</v>
+        <v>-0.8095250030308293</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03860214608049894</v>
+        <v>0.03796466833637217</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1151631272090393</v>
       </c>
       <c r="E90" t="n">
-        <v>1.127116643435111</v>
+        <v>1.128089387252075</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6658060391222275</v>
+        <v>-0.6648033889419589</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05605014804011707</v>
+        <v>0.05550553742414703</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1130439667645215</v>
       </c>
       <c r="E91" t="n">
-        <v>1.226029579036767</v>
+        <v>1.227007044911095</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4925962529569359</v>
+        <v>-0.4913748141188065</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03010716488283913</v>
+        <v>0.02967430962448144</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1016419346307676</v>
       </c>
       <c r="E92" t="n">
-        <v>1.261665371943015</v>
+        <v>1.262968659775452</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.344632159478186</v>
+        <v>-0.3430754545672197</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05697724530256317</v>
+        <v>0.05655383415893329</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07891745154509369</v>
       </c>
       <c r="E93" t="n">
-        <v>1.289871794596723</v>
+        <v>1.291493034291663</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2372635931569022</v>
+        <v>-0.2356281872898708</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04351623377719969</v>
+        <v>0.04327383483251938</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04581543293769422</v>
       </c>
       <c r="E94" t="n">
-        <v>1.239325318554394</v>
+        <v>1.241166920926316</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1109926312079184</v>
+        <v>-0.1091069563006002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06128376161844185</v>
+        <v>0.06088553478075278</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.005288324104620211</v>
       </c>
       <c r="E95" t="n">
-        <v>1.209311921949433</v>
+        <v>1.210941031739979</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02116493397440947</v>
+        <v>-0.01957360064277448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01776528095272044</v>
+        <v>0.01729937129281544</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0364516119263828</v>
       </c>
       <c r="E96" t="n">
-        <v>1.120915008097186</v>
+        <v>1.122465416931667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05707483448808381</v>
+        <v>0.0584174727985533</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02359836753594034</v>
+        <v>-0.02405168504287493</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07407707060994986</v>
       </c>
       <c r="E97" t="n">
-        <v>1.060691462497101</v>
+        <v>1.061892439086653</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1049045535270478</v>
+        <v>0.1062582099713664</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01039234710822757</v>
+        <v>-0.01089603322704379</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1027277559805552</v>
       </c>
       <c r="E98" t="n">
-        <v>0.958742244010455</v>
+        <v>0.9601415470092913</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026064856099488</v>
+        <v>0.1038672749261107</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06325105723974726</v>
+        <v>-0.06365715417304284</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1210964296062235</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9012952681403438</v>
+        <v>0.9021971810968491</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1168623767915691</v>
+        <v>0.1180932597444263</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05483162895990988</v>
+        <v>-0.05535735134642431</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1297349561092167</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8495242052216428</v>
+        <v>0.8503222329161423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1100138195947898</v>
+        <v>0.1110794305399104</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0630952293467385</v>
+        <v>-0.06352651058597489</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1324403295147033</v>
       </c>
       <c r="E101" t="n">
-        <v>0.769449130463713</v>
+        <v>0.7701117925137806</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1046668766397314</v>
+        <v>0.105716747393639</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06161407735359455</v>
+        <v>-0.06210044926207646</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.130106975496385</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7461693876596758</v>
+        <v>0.7465990948797909</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1050540853435714</v>
+        <v>0.1060173850458074</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06179036749518022</v>
+        <v>-0.0621933163902332</v>
       </c>
     </row>
   </sheetData>
